--- a/data/trans_dic/P55$privada-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55$privada-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.03312286405693531</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1366684451222061</v>
+        <v>0.1366684451222062</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2333027409138914</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01897588869126775</v>
+        <v>0.01922157266987225</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02082536934205735</v>
+        <v>0.02118242440799246</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07622325266492275</v>
+        <v>0.06791602133099289</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1502122356098849</v>
+        <v>0.147677056157869</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04281843918273128</v>
+        <v>0.04329149081005618</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09696027882805835</v>
+        <v>0.0900802203315087</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08267530148200394</v>
+        <v>0.08115566788821675</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1104024743361273</v>
+        <v>0.109671606660053</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04977477903937629</v>
+        <v>0.04983084651770043</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07533431993137786</v>
+        <v>0.0746040712557324</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08909935167436374</v>
+        <v>0.09311161768848301</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1648657090330786</v>
+        <v>0.1662000418053011</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.190143762783253</v>
+        <v>0.1885436512552635</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1967805342705222</v>
+        <v>0.1680966954480258</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2232019001477602</v>
+        <v>0.2233609877578704</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3430278094938815</v>
+        <v>0.3412662201535785</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2141786126161686</v>
+        <v>0.2091667163025241</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2567683993371973</v>
+        <v>0.2640625436373396</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1908640467026758</v>
+        <v>0.1880824187014756</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2494658319987489</v>
+        <v>0.2476244658327799</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1658634386115868</v>
+        <v>0.1666129316210294</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2124124316629661</v>
+        <v>0.2049859640426992</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1799633600711798</v>
+        <v>0.1798736703987945</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08396321429673863</v>
+        <v>0.08430173649783704</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1016313025825619</v>
+        <v>0.1029972524785407</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1184366410230748</v>
+        <v>0.1252861706525127</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1202663269848689</v>
+        <v>0.1180505416627181</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1451050357301554</v>
+        <v>0.1501890832757696</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1387709790090886</v>
+        <v>0.1345273006486168</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1054310078836569</v>
+        <v>0.1014985333247214</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1582783505389116</v>
+        <v>0.1648960453304677</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1422680682455141</v>
+        <v>0.1386389686506824</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1390515710561155</v>
+        <v>0.137910530413304</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1167271162536122</v>
+        <v>0.1232823302440304</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1624631265227229</v>
+        <v>0.1605979757669447</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2373413233681817</v>
+        <v>0.2292391563264558</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2569067745415564</v>
+        <v>0.2551010144326112</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2741487724748125</v>
+        <v>0.2690031044856139</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2367078103369298</v>
+        <v>0.2297149514018304</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2807612296804823</v>
+        <v>0.2870693921988059</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2544033943191554</v>
+        <v>0.2507395104374804</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2366130472166927</v>
+        <v>0.2292929485514825</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2354490770157293</v>
+        <v>0.2413702372511999</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.23710387928672</v>
+        <v>0.2451568978295156</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2318081991995653</v>
+        <v>0.2373587359978189</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2115470193994292</v>
+        <v>0.2171971147900832</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2265554903520806</v>
+        <v>0.223431263185039</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1588485796188314</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1835715366142479</v>
+        <v>0.183571536614248</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1829482942270295</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0682851792858145</v>
+        <v>0.07104578713310664</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08412915520851511</v>
+        <v>0.08828850016397888</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09387336926364175</v>
+        <v>0.09131365325303466</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1155790652399402</v>
+        <v>0.1188981221413272</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1673194096932216</v>
+        <v>0.1656097885989236</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1227183054294035</v>
+        <v>0.1238066077226705</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1160181170356479</v>
+        <v>0.1149793726906935</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1527179646511128</v>
+        <v>0.1537697328716444</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1456119879531752</v>
+        <v>0.1476788896274832</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1220655360384813</v>
+        <v>0.1197526323796115</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1174926022305788</v>
+        <v>0.1191483386813608</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1501395177178928</v>
+        <v>0.1489857572178072</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1893449281325758</v>
+        <v>0.178478730276999</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2022522276838096</v>
+        <v>0.2093004415535017</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2044345413184652</v>
+        <v>0.2111288076292383</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2101372031363208</v>
+        <v>0.216109920190449</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.281011247141275</v>
+        <v>0.2769468120690114</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.222786168626524</v>
+        <v>0.2151716576229178</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2128831490277394</v>
+        <v>0.2134821255813046</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2160821787154768</v>
+        <v>0.2161690298306127</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2285275098359725</v>
+        <v>0.2250788044550181</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.197818613237516</v>
+        <v>0.1956086428091333</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1999395332456371</v>
+        <v>0.1975509520018247</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2017870076288533</v>
+        <v>0.2030063131159186</v>
       </c>
     </row>
     <row r="13">
@@ -1326,40 +1326,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4197</v>
+        <v>3740</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>10164</v>
+        <v>9992</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2985</v>
+        <v>3018</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7964</v>
+        <v>7399</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6657</v>
+        <v>6534</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12083</v>
+        <v>12003</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>5733</v>
+        <v>5739</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8549</v>
+        <v>8466</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>12080</v>
+        <v>12624</v>
       </c>
     </row>
     <row r="7">
@@ -1370,40 +1370,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6889</v>
+        <v>6945</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8643</v>
+        <v>8570</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6167</v>
+        <v>5268</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12290</v>
+        <v>12299</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>23210</v>
+        <v>23090</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14932</v>
+        <v>14582</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21091</v>
+        <v>21690</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>15368</v>
+        <v>15144</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>27303</v>
+        <v>27101</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>19103</v>
+        <v>19189</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>24104</v>
+        <v>23261</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>24399</v>
+        <v>24387</v>
       </c>
     </row>
     <row r="8">
@@ -1506,40 +1506,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7120</v>
+        <v>7148</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10235</v>
+        <v>10373</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10674</v>
+        <v>11291</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>13717</v>
+        <v>13465</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>23690</v>
+        <v>24520</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>29116</v>
+        <v>28226</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>19528</v>
+        <v>18800</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>43799</v>
+        <v>45631</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>35290</v>
+        <v>34390</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>43179</v>
+        <v>42825</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>32140</v>
+        <v>33945</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>63488</v>
+        <v>62759</v>
       </c>
     </row>
     <row r="11">
@@ -1550,40 +1550,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20125</v>
+        <v>19438</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25874</v>
+        <v>25692</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24707</v>
+        <v>24243</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>26999</v>
+        <v>26201</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>45838</v>
+        <v>46868</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>53377</v>
+        <v>52608</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>43826</v>
+        <v>42470</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>65154</v>
+        <v>66793</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>58815</v>
+        <v>60813</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>71982</v>
+        <v>73706</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>58248</v>
+        <v>59804</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>88534</v>
+        <v>87313</v>
       </c>
     </row>
     <row r="12">
@@ -1686,40 +1686,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8643</v>
+        <v>8993</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12297</v>
+        <v>12905</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11402</v>
+        <v>11091</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>19547</v>
+        <v>20108</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>38638</v>
+        <v>38243</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>34303</v>
+        <v>34608</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>31019</v>
+        <v>30741</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>54557</v>
+        <v>54933</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>52056</v>
+        <v>52795</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>51963</v>
+        <v>50978</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>45684</v>
+        <v>46327</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>79028</v>
+        <v>78420</v>
       </c>
     </row>
     <row r="15">
@@ -1730,40 +1730,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23967</v>
+        <v>22591</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>29563</v>
+        <v>30593</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24830</v>
+        <v>25643</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>35539</v>
+        <v>36549</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>64892</v>
+        <v>63953</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>62275</v>
+        <v>60147</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>56917</v>
+        <v>57077</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>77193</v>
+        <v>77224</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>81699</v>
+        <v>80466</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>84211</v>
+        <v>83270</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>77741</v>
+        <v>76812</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>106213</v>
+        <v>106855</v>
       </c>
     </row>
     <row r="16">
